--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AR2_50_9_summer.xlsx
@@ -425,9 +425,6 @@
       <c r="D2">
         <v>2009</v>
       </c>
-      <c r="E2">
-        <v>1.747591372647683</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
@@ -436,14 +433,8 @@
       <c r="B3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>1.834695583582491</v>
-      </c>
       <c r="D3">
         <v>2010</v>
-      </c>
-      <c r="E3">
-        <v>1.96900122769168</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -453,14 +444,8 @@
       <c r="B4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>1.767835936772166</v>
-      </c>
       <c r="D4">
         <v>2011</v>
-      </c>
-      <c r="E4">
-        <v>0.6540062440080208</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -470,14 +455,8 @@
       <c r="B5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>1.074400434091016</v>
-      </c>
       <c r="D5">
         <v>2012</v>
-      </c>
-      <c r="E5">
-        <v>1.266814459660814</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -487,14 +466,8 @@
       <c r="B6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>0.9212998022035679</v>
-      </c>
       <c r="D6">
         <v>2013</v>
-      </c>
-      <c r="E6">
-        <v>1.148586223271275</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +478,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>1.141837882844188</v>
+        <v>1.097054137926201</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.138072517022626</v>
+        <v>1.37755776875883</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +495,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.335361538769475</v>
+        <v>1.385527545913412</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.13791261307421</v>
+        <v>1.329814931661888</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +512,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.202048372526998</v>
+        <v>1.296301936385214</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.239356233827293</v>
+        <v>1.355477993452414</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +529,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.677488680362305</v>
+        <v>2.441628883342295</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>2.112732612705837</v>
+        <v>1.386547975635688</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +546,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.466954516646402</v>
+        <v>2.565764046666463</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.304525109075838</v>
+        <v>1.833587970352424</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +563,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>1.401189216021326</v>
+        <v>1.263447557103259</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.888152810688548</v>
+        <v>1.485511920344451</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +580,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>2.217570159472659</v>
+        <v>2.117022522597423</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>2.055817427361806</v>
+        <v>1.745834498329324</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +597,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>2.408621835913149</v>
+        <v>2.149400276001101</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.797576752784936</v>
+        <v>1.76475225558832</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +614,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.435392224674993</v>
+        <v>2.453568910971748</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>0.3173162112820371</v>
+        <v>2.131436976903012</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +631,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>0.7452509897571069</v>
+        <v>0.812682184439506</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.028725335207503</v>
+        <v>1.556352278772266</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +648,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.782207885866093</v>
+        <v>0.9940067218177528</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>2.321849008702292</v>
+        <v>1.820779918499094</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +665,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>1.533774754225425</v>
+        <v>1.634555928116921</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.069697780284606</v>
+        <v>1.554016159863814</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +682,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.6014263374495288</v>
+        <v>0.6231570351797</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>1.686249836453868</v>
+        <v>1.581524829939718</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AR2_50_9_summer.xlsx
@@ -444,8 +444,14 @@
       <c r="B4">
         <v>2010</v>
       </c>
+      <c r="C4">
+        <v>2.208165160720954</v>
+      </c>
       <c r="D4">
         <v>2011</v>
+      </c>
+      <c r="E4">
+        <v>1.903751357432193</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -455,8 +461,14 @@
       <c r="B5">
         <v>2011</v>
       </c>
+      <c r="C5">
+        <v>1.614140618728332</v>
+      </c>
       <c r="D5">
         <v>2012</v>
+      </c>
+      <c r="E5">
+        <v>1.770808585446004</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -466,8 +478,14 @@
       <c r="B6">
         <v>2012</v>
       </c>
+      <c r="C6">
+        <v>1.625793900975747</v>
+      </c>
       <c r="D6">
         <v>2013</v>
+      </c>
+      <c r="E6">
+        <v>1.586821460965226</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -478,13 +496,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>1.097054137926201</v>
+        <v>0.8049364973309325</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.37755776875883</v>
+        <v>1.421244400332</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -495,13 +513,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.385527545913412</v>
+        <v>0.5775251578155283</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.329814931661888</v>
+        <v>1.341244385861273</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -512,13 +530,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.296301936385214</v>
+        <v>1.901826580533572</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.355477993452414</v>
+        <v>1.53605963063923</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -529,13 +547,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.441628883342295</v>
+        <v>2.590339257583607</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.386547975635688</v>
+        <v>1.672072534917302</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -546,13 +564,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.565764046666463</v>
+        <v>1.713587272940131</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.833587970352424</v>
+        <v>1.721854626734953</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -563,13 +581,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>1.263447557103259</v>
+        <v>1.05432456490544</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.485511920344451</v>
+        <v>1.415552619392124</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -580,13 +598,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>2.117022522597423</v>
+        <v>1.566023898188384</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.745834498329324</v>
+        <v>1.644188696416427</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -597,13 +615,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>2.149400276001101</v>
+        <v>2.155932165770968</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>1.76475225558832</v>
+        <v>1.805141163113122</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -614,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.453568910971748</v>
+        <v>2.443967114785739</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.131436976903012</v>
+        <v>2.026008136667135</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -631,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>0.812682184439506</v>
+        <v>0.388123216496683</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.556352278772266</v>
+        <v>1.819907598678561</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -648,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.9940067218177528</v>
+        <v>-2.811030211656218</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>1.820779918499094</v>
+        <v>0.8407670860975047</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -665,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>1.634555928116921</v>
+        <v>1.250641979737566</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.554016159863814</v>
+        <v>1.466559393695466</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -682,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.6231570351797</v>
+        <v>2.302179720973463</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>1.581524829939718</v>
+        <v>1.805984941845473</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AR2_50_9_summer.xlsx
@@ -632,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.443967114785739</v>
+        <v>2.250958781244572</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.026008136667135</v>
+        <v>1.736577049860766</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>0.388123216496683</v>
+        <v>0.448965795177636</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.819907598678561</v>
+        <v>1.807989101611551</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -666,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-2.811030211656218</v>
+        <v>-3.096730754930321</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.8407670860975047</v>
+        <v>0.5284333133635188</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>1.250641979737566</v>
+        <v>1.477411815263086</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.466559393695466</v>
+        <v>1.648748338197037</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -700,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>2.302179720973463</v>
+        <v>2.414613509548702</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>1.805984941845473</v>
+        <v>1.862575447557324</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AR2_50_9_summer.xlsx
@@ -451,7 +451,7 @@
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>1.903751357432193</v>
+        <v>1.903751357432215</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -462,7 +462,7 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>1.614140618728332</v>
+        <v>1.614140618728288</v>
       </c>
       <c r="D5">
         <v>2012</v>
@@ -513,7 +513,7 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>0.5775251578155283</v>
+        <v>0.5775251578155061</v>
       </c>
       <c r="D8">
         <v>2015</v>
@@ -564,13 +564,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.713587272940131</v>
+        <v>1.713587272940154</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.721854626734953</v>
+        <v>1.721854626734931</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -604,7 +604,7 @@
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.644188696416427</v>
+        <v>1.644188696416449</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -632,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.250958781244572</v>
+        <v>2.250958781244594</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>1.736577049860766</v>
+        <v>1.736577049860744</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -655,7 +655,7 @@
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.807989101611551</v>
+        <v>1.807989101611529</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -666,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-3.096730754930321</v>
+        <v>-3.096730754930299</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.5284333133635188</v>
+        <v>0.528433313363541</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>1.477411815263086</v>
+        <v>1.477411815263108</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.648748338197037</v>
+        <v>1.648748338197015</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -700,7 +700,7 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>2.414613509548702</v>
+        <v>2.414613509548658</v>
       </c>
       <c r="D19">
         <v>2026</v>
